--- a/biology/Botanique/Orontium_aquaticum/Orontium_aquaticum.xlsx
+++ b/biology/Botanique/Orontium_aquaticum/Orontium_aquaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orontium aquaticum est une espèce de plantes aquatiques de la famille des Araceae. C'est la seule espèce acceptée à l'heure actuelle du genre Orontium.
-Cette espèce d'oronce est appelée communément « cryptocoryne américaine[1] » en France ou « plante à bougies » au Québec.
+Cette espèce d'oronce est appelée communément « cryptocoryne américaine » en France ou « plante à bougies » au Québec.
 Cette espèce est utilisée comme plante ornementale. Elle est originaire de l’est des États-Unis jusqu'au Texas. On la considère parfois comme plante envahissante sur ce continent.. Elle est naturalisée en Suède.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse dans les eaux stagnantes ou faiblement courantes.
 Les inflorescences sont constituées d’un spadice jaune or sur une hampe blanche renflée à son extrémité. Ces fleurs très originales, qui rappellent des bougies allumées ne possèdent apparemment pas de spathe. En réalité, leur spathe très réduite est rapidement caduque. L'oronce prospère en eau peu profonde (30 à 50 cm).
